--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,56 +40,72 @@
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$H$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$H$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -101,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="133">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -163,247 +179,247 @@
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdl_translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdl_prot_degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdl_metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein (MPN001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKVLINKNELNKILKKLNNVIVSNNKMKPYHSYLLIEATEKEINFYANNEYFSAKCTLAENIDVLEEGEVIVKGKIFSELINGIKEDIITIQEKDQTLLVKTKKTNINLNTIDKKEFPRIRFNQNVDLKEFDELKIQHSLLTKGLKKIAHAVSTFRESTRKFNGVNFNGSNGKQIFLEASDSYKLSVYEIKQKTDPFNFIVETNLLSFINSFNPEGGDLISIFFRKEHKDDLSTELLIKLDNFLINYTSINESFPRVMQLFDFEPETKVTIQKNELKDALQRILTLAQNERFFLCDMQVTNSHLKINSNVQNIGASLEEVTCLKFEGHKLNIAVNALSLLEHIDSFDTDEIELYFQGSNKYFLISSNNEPELKEILVPSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1980H3146N237O596S7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InChI=1S/C3H7NO2/c1-2(4)3(5)6/h2H,4H2,1H3,(H,5,6)/t2-/m0/s1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3H7NO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InChI=1S/H2O/h1H2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell_100_ag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 attograms of a cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prot[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molecules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ala[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2o[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ala[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2o[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (380) ala ==&gt; prot + (379) h2o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prot_degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: prot + (379) h2o ==&gt; (380) ala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ala_ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alanine import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(100) ala[e] ==&gt; (100) ala[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2o_ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1e6) h2o[e] ==&gt; (1e6) h2o[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">==&gt; cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN(2)/3600*(1/8 + 1/18) * 1500 / 511 * 6.7E-017 * 6.022E+023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * prot[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN(2)/18/3600*6.7E-017*6.022E+023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN(2)/8/3600*(1500*380 + 0.001*6.7E-017*6.022E+023)*6.7E-017*6.022E+023/511*0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN(2)/8/3600*(1500*379 + 55*6.7E-017*6.022E+023)*6.7E-017*6.022E+023/511*0.000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdl_translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdl_prot_degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdl_metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytosol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein (MPN001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKVLINKNELNKILKKLNNVIVSNNKMKPYHSYLLIEATEKEINFYANNEYFSAKCTLAENIDVLEEGEVIVKGKIFSELINGIKEDIITIQEKDQTLLVKTKKTNINLNTIDKKEFPRIRFNQNVDLKEFDELKIQHSLLTKGLKKIAHAVSTFRESTRKFNGVNFNGSNGKQIFLEASDSYKLSVYEIKQKTDPFNFIVETNLLSFINSFNPEGGDLISIFFRKEHKDDLSTELLIKLDNFLINYTSINESFPRVMQLFDFEPETKVTIQKNELKDALQRILTLAQNERFFLCDMQVTNSHLKINSNVQNIGASLEEVTCLKFEGHKLNIAVNALSLLEHIDSFDTDEIELYFQGSNKYFLISSNNEPELKEILVPSK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1980H3146N237O596S7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alanine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InChI=1S/C3H7NO2/c1-2(4)3(5)6/h2H,4H2,1H3,(H,5,6)/t2-/m0/s1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3H7NO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h2o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InChI=1S/H2O/h1H2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell_100_ag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 attograms of a cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">container</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prot[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ala[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h2o[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ala[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h2o[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">container[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (380) ala ==&gt; prot + (379) h2o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prot_degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: prot + (379) h2o ==&gt; (380) ala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ala_ex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alanine import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(100) ala[e] ==&gt; (100) ala[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h2o_ex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1e6) h2o[e] ==&gt; (1e6) h2o[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">==&gt; cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN(2)/3600*(1/8 + 1/18) * 1500 / 511 * 6.7E-017 * 6.022E+023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * prot[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN(2)/18/3600*6.7E-017*6.022E+023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN(2)/8/3600*(1500*380 + 0.001*6.7E-017*6.022E+023)*6.7E-017*6.022E+023/511*0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN(2)/8/3600*(1500*379 + 55*6.7E-017*6.022E+023)*6.7E-017*6.022E+023/511*0.000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
   </si>
   <si>
     <t xml:space="preserve">Model</t>
@@ -506,14 +522,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -542,12 +557,6 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -598,7 +607,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -627,11 +636,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -793,7 +798,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -889,29 +894,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.73279352226721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -922,82 +927,82 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4117.36841781746</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>431.58466902661</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>11598.5774245708</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>4218.10236992455</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>971.065505309873</v>
@@ -1044,13 +1049,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -1100,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1141,7 +1146,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1159,10 +1164,10 @@
         <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1246,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1305,7 +1310,7 @@
         <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>113</v>
@@ -1368,7 +1373,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1389,16 +1394,16 @@
         <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>125</v>
@@ -1408,7 +1413,7 @@
       <c r="A2" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="8" t="n">
         <v>272634</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -1429,7 +1434,7 @@
         <v>130</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1443,7 +1448,7 @@
         <v>132</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1532,20 +1537,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1566,52 +1571,47 @@
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:G1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1651,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>6.7E-017</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>1E-012</v>
@@ -1716,7 +1716,7 @@
     <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1728,19 +1728,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -1751,36 +1751,36 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>40031.7</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>89.09322</v>
@@ -1789,21 +1789,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>18.0153</v>
@@ -1812,15 +1812,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>60220000</v>
@@ -1829,15 +1829,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>9229006562.46504</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1911,20 +1911,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3765182186235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.73279352226721"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1935,79 +1935,79 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>0.001</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>55</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>0.01</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>55</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>511</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>100000</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -2098,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -2124,7 +2124,7 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2134,10 +2134,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="34.5425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="34.8137651821862"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -2150,19 +2150,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -2173,16 +2173,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="6" t="n">
         <v>0</v>
@@ -2190,16 +2190,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="E3" s="6" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0</v>
@@ -2224,16 +2224,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>0</v>
@@ -2241,18 +2241,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="7" t="b">
+      <c r="E6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,99 +13,116 @@
     <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Species" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -117,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="133">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -290,6 +307,33 @@
     <t xml:space="preserve">container</t>
   </si>
   <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prot[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ala[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2o[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ala[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2o[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container[c]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Species</t>
   </si>
   <si>
@@ -299,33 +343,12 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">prot[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">molecules</t>
   </si>
   <si>
-    <t xml:space="preserve">ala[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">h2o[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ala[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h2o[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">container[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Expression</t>
   </si>
   <si>
@@ -414,12 +437,6 @@
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
   </si>
   <si>
     <t xml:space="preserve">Model</t>
@@ -528,7 +545,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -556,6 +573,14 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -607,7 +632,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -622,6 +647,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -798,7 +827,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -882,6 +911,159 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -889,34 +1071,34 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -930,79 +1112,79 @@
         <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4117.36841781746</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>431.58466902661</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>11598.5774245708</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>4218.10236992455</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>971.065505309873</v>
@@ -1021,7 +1203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1052,10 +1234,10 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -1077,7 +1259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1105,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1127,7 +1309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1146,7 +1328,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1164,10 +1346,10 @@
         <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1223,7 +1405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1251,7 +1433,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1270,7 +1452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1356,7 +1538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1373,7 +1555,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1394,16 +1576,16 @@
         <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>125</v>
@@ -1413,7 +1595,7 @@
       <c r="A2" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>272634</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -1539,7 +1721,7 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1549,8 +1731,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1716,7 +1898,7 @@
     <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1899,6 +2081,145 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D9" activeCellId="0" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1906,25 +2227,25 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1935,130 +2256,83 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>0.001</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>55</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>0.01</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>55</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>511</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>100000</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2098,7 +2372,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -2122,24 +2396,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2149,116 +2418,15 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,16 +19,16 @@
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass components" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
@@ -41,88 +41,104 @@
     <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$F$1</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Submodels!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Submodels!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Submodels!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Submodels!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -134,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="133">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -196,244 +212,244 @@
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdl_translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdl_prot_degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdl_metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein (MPN001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKVLINKNELNKILKKLNNVIVSNNKMKPYHSYLLIEATEKEINFYANNEYFSAKCTLAENIDVLEEGEVIVKGKIFSELINGIKEDIITIQEKDQTLLVKTKKTNINLNTIDKKEFPRIRFNQNVDLKEFDELKIQHSLLTKGLKKIAHAVSTFRESTRKFNGVNFNGSNGKQIFLEASDSYKLSVYEIKQKTDPFNFIVETNLLSFINSFNPEGGDLISIFFRKEHKDDLSTELLIKLDNFLINYTSINESFPRVMQLFDFEPETKVTIQKNELKDALQRILTLAQNERFFLCDMQVTNSHLKINSNVQNIGASLEEVTCLKFEGHKLNIAVNALSLLEHIDSFDTDEIELYFQGSNKYFLISSNNEPELKEILVPSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1980H3146N237O596S7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InChI=1S/C3H7NO2/c1-2(4)3(5)6/h2H,4H2,1H3,(H,5,6)/t2-/m0/s1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3H7NO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InChI=1S/H2O/h1H2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell_100_ag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 attograms of a cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prot[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ala[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2o[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ala[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2o[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molecules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (380) ala ==&gt; prot + (379) h2o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prot_degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: prot + (379) h2o ==&gt; (380) ala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ala_ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alanine import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(100) ala[e] ==&gt; (100) ala[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2o_ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1e6) h2o[e] ==&gt; (1e6) h2o[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">==&gt; cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN(2)/3600*(1/8 + 1/18) * 1500 / 511 * 6.7E-017 * 6.022E+023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * prot[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN(2)/18/3600*6.7E-017*6.022E+023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN(2)/8/3600*(1500*380 + 0.001*6.7E-017*6.022E+023)*6.7E-017*6.022E+023/511*0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN(2)/8/3600*(1500*379 + 55*6.7E-017*6.022E+023)*6.7E-017*6.022E+023/511*0.000001</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdl_translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdl_prot_degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdl_metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytosol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein (MPN001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKVLINKNELNKILKKLNNVIVSNNKMKPYHSYLLIEATEKEINFYANNEYFSAKCTLAENIDVLEEGEVIVKGKIFSELINGIKEDIITIQEKDQTLLVKTKKTNINLNTIDKKEFPRIRFNQNVDLKEFDELKIQHSLLTKGLKKIAHAVSTFRESTRKFNGVNFNGSNGKQIFLEASDSYKLSVYEIKQKTDPFNFIVETNLLSFINSFNPEGGDLISIFFRKEHKDDLSTELLIKLDNFLINYTSINESFPRVMQLFDFEPETKVTIQKNELKDALQRILTLAQNERFFLCDMQVTNSHLKINSNVQNIGASLEEVTCLKFEGHKLNIAVNALSLLEHIDSFDTDEIELYFQGSNKYFLISSNNEPELKEILVPSK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1980H3146N237O596S7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alanine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InChI=1S/C3H7NO2/c1-2(4)3(5)6/h2H,4H2,1H3,(H,5,6)/t2-/m0/s1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3H7NO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h2o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InChI=1S/H2O/h1H2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell_100_ag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 attograms of a cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">container</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prot[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ala[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h2o[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ala[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h2o[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">container[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (380) ala ==&gt; prot + (379) h2o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prot_degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: prot + (379) h2o ==&gt; (380) ala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ala_ex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alanine import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(100) ala[e] ==&gt; (100) ala[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h2o_ex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1e6) h2o[e] ==&gt; (1e6) h2o[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">==&gt; cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN(2)/3600*(1/8 + 1/18) * 1500 / 511 * 6.7E-017 * 6.022E+023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * prot[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN(2)/18/3600*6.7E-017*6.022E+023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN(2)/8/3600*(1500*380 + 0.001*6.7E-017*6.022E+023)*6.7E-017*6.022E+023/511*0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN(2)/8/3600*(1500*379 + 55*6.7E-017*6.022E+023)*6.7E-017*6.022E+023/511*0.000001</t>
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
@@ -827,7 +843,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -923,10 +939,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="35.2429149797571"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -939,19 +955,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -962,16 +978,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>0</v>
@@ -979,16 +995,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>0</v>
@@ -996,16 +1012,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="E4" s="7" t="n">
         <v>0</v>
@@ -1013,16 +1029,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>0</v>
@@ -1030,16 +1046,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="E6" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -1076,29 +1092,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -1109,82 +1125,82 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4117.36841781746</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>431.58466902661</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>11598.5774245708</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>4218.10236992455</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>971.065505309873</v>
@@ -1208,14 +1224,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1231,23 +1247,17 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:E1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1264,14 +1274,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1287,17 +1297,23 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:G1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1346,10 +1362,10 @@
         <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1433,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1492,7 +1508,7 @@
         <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>113</v>
@@ -1555,7 +1571,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1576,16 +1592,16 @@
         <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>125</v>
@@ -1616,7 +1632,7 @@
         <v>130</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,7 +1646,7 @@
         <v>132</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1719,20 +1735,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1750,50 +1766,47 @@
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:F1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1833,7 +1846,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1844,10 +1857,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>31</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>6.7E-017</v>
@@ -1855,10 +1868,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>33</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>1E-012</v>
@@ -1898,7 +1911,7 @@
     <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1910,19 +1923,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -1933,36 +1946,36 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>40031.7</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>89.09322</v>
@@ -1971,21 +1984,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>18.0153</v>
@@ -1994,15 +2007,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>60220000</v>
@@ -2011,15 +2024,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>9229006562.46504</v>
@@ -2028,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2083,7 +2096,7 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2093,8 +2106,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2105,10 +2118,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>13</v>
@@ -2119,79 +2132,79 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2233,19 +2246,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -2256,79 +2269,79 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>0.001</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>55</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>0.01</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>55</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>511</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>100000</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2372,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -2419,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>

--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$F$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$A$1:$E$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$1</definedName>
@@ -58,11 +58,11 @@
     <definedName name="_FilterDatabase_0_0_0" localSheetId="2">Submodels!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="2">Submodels!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$1</definedName>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="178">
   <si>
     <t>Id</t>
   </si>
@@ -237,70 +237,91 @@
     <t>metabolism</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density units</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>cytosol</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
+    <t>g ml^-1</t>
+  </si>
+  <si>
+    <t>extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>cytosol</t>
-  </si>
-  <si>
-    <t>physical_3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>extracellular space</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
   </si>
   <si>
     <t>prot</t>
@@ -644,11 +665,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -709,6 +730,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -725,76 +837,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,32 +853,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -859,25 +880,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,7 +916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,7 +928,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,19 +976,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,7 +1000,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,25 +1024,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,55 +1048,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,7 +1072,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,21 +1088,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,29 +1109,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,134 +1130,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1861,22 +1882,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>18</v>
@@ -1902,7 +1923,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E2" s="7">
         <v>0</v>
@@ -1910,7 +1931,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -1919,7 +1940,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -1927,16 +1948,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
@@ -1944,16 +1965,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
@@ -1961,16 +1982,16 @@
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E6" s="7" t="b">
         <f>FALSE()</f>
@@ -2021,19 +2042,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -2050,102 +2071,102 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="7:10">
@@ -2214,13 +2235,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -2268,13 +2289,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -2326,16 +2347,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>18</v>
@@ -2391,16 +2412,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
@@ -2417,13 +2438,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
@@ -2434,101 +2455,101 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1">
         <v>4117.36841781746</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D5" s="4">
         <v>431.58466902661</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D6" s="4">
         <v>11598.5774245708</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="D7" s="4">
         <v>4218.10236992455</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D8" s="4">
         <v>971.065505309873</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2568,10 +2589,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -2622,28 +2643,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
@@ -2691,46 +2712,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -2915,30 +2936,30 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:J3"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1028" width="8.575" style="1"/>
-    <col min="1029" max="16384" width="9" style="1"/>
+    <col min="1" max="1031" width="8.575" style="1"/>
+    <col min="1032" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2963,84 +2984,108 @@
         <v>44</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:10">
+    <row r="2" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="4">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="4">
         <v>4.58e-17</v>
       </c>
-      <c r="G2" s="1">
+      <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:10">
+      <c r="K2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>52</v>
+      <c r="K3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3">
+  <autoFilter ref="A1:H3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3081,19 +3126,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -3110,16 +3155,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E2" s="4">
         <v>27027.6249</v>
@@ -3128,21 +3173,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E3" s="4">
         <v>89.09322</v>
@@ -3151,24 +3196,24 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E4" s="4">
         <v>18.0153</v>
@@ -3177,18 +3222,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E5" s="4">
         <v>60220000</v>
@@ -3197,15 +3242,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E6" s="4">
         <v>9229006562.46504</v>
@@ -3214,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="7:7">
@@ -3270,13 +3315,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -3293,100 +3338,100 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3430,19 +3475,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -3459,121 +3504,121 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1">
         <v>1500</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E3" s="4">
         <v>0.001</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1">
         <v>55</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E5" s="4">
         <v>0.01</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1">
         <v>55</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1">
         <v>511</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E8" s="4">
         <v>100000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3613,10 +3658,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -3668,10 +3713,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>

--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="180">
   <si>
     <t>Id</t>
   </si>
@@ -471,7 +471,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>[c]: (380) ala ==&gt; prot + (379) h2o</t>
@@ -550,6 +550,12 @@
   </si>
   <si>
     <t>k_cat_growth * cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -665,11 +671,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -716,6 +722,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -723,6 +744,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -730,24 +752,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -771,6 +777,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -778,7 +792,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -786,7 +800,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,14 +829,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,11 +850,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -834,28 +862,6 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -874,31 +880,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,25 +898,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,7 +958,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,13 +1000,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,79 +1060,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,7 +1078,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,11 +1124,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,168 +1157,151 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1860,7 +1866,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D6"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -2212,14 +2218,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2227,7 +2233,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2244,15 +2250,21 @@
         <v>88</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2295,7 +2307,7 @@
         <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -2347,13 +2359,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>97</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>88</v>
@@ -2415,10 +2427,10 @@
         <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>88</v>
@@ -2438,10 +2450,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>131</v>
@@ -2455,10 +2467,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>131</v>
@@ -2467,89 +2479,89 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D4" s="1">
         <v>4117.36841781746</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D5" s="4">
         <v>431.58466902661</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D6" s="4">
         <v>11598.5774245708</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D7" s="4">
         <v>4218.10236992455</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D8" s="4">
         <v>971.065505309873</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>88</v>
@@ -2652,19 +2664,19 @@
         <v>65</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
@@ -2712,46 +2724,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -2938,7 +2950,7 @@
   <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$A$1:$E$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$I$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Rate laws'!$A$1:$G$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$H$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$H$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="187">
   <si>
     <t>Id</t>
   </si>
@@ -249,406 +249,427 @@
     <t>Parent compartment</t>
   </si>
   <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>cytosol</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>prot</t>
+  </si>
+  <si>
+    <t>protein (MPN001)</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>C1140H1902N380O381</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>ala</t>
+  </si>
+  <si>
+    <t>alanine</t>
+  </si>
+  <si>
+    <t>InChI=1S/C3H7NO2/c1-2(4)3(5)6/h2H,4H2,1H3,(H,5,6)/t2-/m0/s1</t>
+  </si>
+  <si>
+    <t>C3H7NO2</t>
+  </si>
+  <si>
+    <t>metabolite</t>
+  </si>
+  <si>
+    <t>chebi: CHEBI:16977</t>
+  </si>
+  <si>
+    <t>h2o</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>chebi: CHEBI:15377</t>
+  </si>
+  <si>
+    <t>cell_100_ag</t>
+  </si>
+  <si>
+    <t>100 attograms of a cell</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>prot[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>ala[c]</t>
+  </si>
+  <si>
+    <t>h2o[c]</t>
+  </si>
+  <si>
+    <t>ala[e]</t>
+  </si>
+  <si>
+    <t>h2o[e]</t>
+  </si>
+  <si>
+    <t>cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t>container[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-prot[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-ala[c]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-h2o[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-ala[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-h2o[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-container[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_e</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>[c]: (380) ala ==&gt; prot + (379) h2o</t>
+  </si>
+  <si>
+    <t>prot_degradation</t>
+  </si>
+  <si>
+    <t>[c]: prot + (379) h2o ==&gt; (380) ala</t>
+  </si>
+  <si>
+    <t>ala_ex</t>
+  </si>
+  <si>
+    <t>alanine import</t>
+  </si>
+  <si>
+    <t>(100) ala[e] ==&gt; (100) ala[c]</t>
+  </si>
+  <si>
+    <t>h2o_ex</t>
+  </si>
+  <si>
+    <t>water import</t>
+  </si>
+  <si>
+    <t>(1e6) h2o[e] ==&gt; (1e6) h2o[c]</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>==&gt; cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>translation-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>k_cat_trl * cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>prot_degradation-forward</t>
+  </si>
+  <si>
+    <t>k_cat_prot_deg * prot[c]</t>
+  </si>
+  <si>
+    <t>ala_ex-forward</t>
+  </si>
+  <si>
+    <t>k_cat_ala_ex * cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t>h2o_ex-forward</t>
+  </si>
+  <si>
+    <t>k_cat_h2o_ex * cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t>growth-forward</t>
+  </si>
+  <si>
+    <t>k_cat_growth * cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>dFBA net reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>cell_cycle_len</t>
+  </si>
+  <si>
+    <t>cell cycle length</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>fraction dry weight</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>k_cat_trl</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>LN(2)/3600*(1/8 + 1/18) * 1500 / 511 * 6.7E-017 * 6.022E+023</t>
+  </si>
+  <si>
+    <t>k_cat_prot_deg</t>
+  </si>
+  <si>
+    <t>LN(2)/18/3600*6.7E-017*6.022E+023</t>
+  </si>
+  <si>
+    <t>k_cat_ala_ex</t>
+  </si>
+  <si>
+    <t>LN(2)/8/3600*(1500*380 + 0.001*6.7E-017*6.022E+023)*6.7E-017*6.022E+023/511*0.01</t>
+  </si>
+  <si>
+    <t>k_cat_h2o_ex</t>
+  </si>
+  <si>
+    <t>LN(2)/8/3600*(1500*379 + 55*6.7E-017*6.022E+023)*6.7E-017*6.022E+023/511*0.000001</t>
+  </si>
+  <si>
+    <t>k_cat_growth</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>cytosol</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>prot</t>
-  </si>
-  <si>
-    <t>protein (MPN001)</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-  </si>
-  <si>
-    <t>C1140H1902N380O381</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>ala</t>
-  </si>
-  <si>
-    <t>alanine</t>
-  </si>
-  <si>
-    <t>InChI=1S/C3H7NO2/c1-2(4)3(5)6/h2H,4H2,1H3,(H,5,6)/t2-/m0/s1</t>
-  </si>
-  <si>
-    <t>C3H7NO2</t>
-  </si>
-  <si>
-    <t>metabolite</t>
-  </si>
-  <si>
-    <t>chebi: CHEBI:16977</t>
-  </si>
-  <si>
-    <t>h2o</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O/h1H2</t>
-  </si>
-  <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>chebi: CHEBI:15377</t>
-  </si>
-  <si>
-    <t>cell_100_ag</t>
-  </si>
-  <si>
-    <t>100 attograms of a cell</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>container</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>prot[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>ala[c]</t>
-  </si>
-  <si>
-    <t>h2o[c]</t>
-  </si>
-  <si>
-    <t>ala[e]</t>
-  </si>
-  <si>
-    <t>h2o[e]</t>
-  </si>
-  <si>
-    <t>cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t>container[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-prot[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-ala[c]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-h2o[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-ala[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-h2o[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-container[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>[c]: (380) ala ==&gt; prot + (379) h2o</t>
-  </si>
-  <si>
-    <t>prot_degradation</t>
-  </si>
-  <si>
-    <t>[c]: prot + (379) h2o ==&gt; (380) ala</t>
-  </si>
-  <si>
-    <t>ala_ex</t>
-  </si>
-  <si>
-    <t>alanine import</t>
-  </si>
-  <si>
-    <t>(100) ala[e] ==&gt; (100) ala[c]</t>
-  </si>
-  <si>
-    <t>h2o_ex</t>
-  </si>
-  <si>
-    <t>water import</t>
-  </si>
-  <si>
-    <t>(1e6) h2o[e] ==&gt; (1e6) h2o[c]</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>==&gt; cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>translation-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>k_cat_trl * cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>prot_degradation-forward</t>
-  </si>
-  <si>
-    <t>k_cat_prot_deg * prot[c]</t>
-  </si>
-  <si>
-    <t>ala_ex-forward</t>
-  </si>
-  <si>
-    <t>k_cat_ala_ex * cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t>h2o_ex-forward</t>
-  </si>
-  <si>
-    <t>k_cat_h2o_ex * cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t>growth-forward</t>
-  </si>
-  <si>
-    <t>k_cat_growth * cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>dFBA net reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>cell_cycle_len</t>
-  </si>
-  <si>
-    <t>cell cycle length</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>fraction dry weight</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>k_cat_trl</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>LN(2)/3600*(1/8 + 1/18) * 1500 / 511 * 6.7E-017 * 6.022E+023</t>
-  </si>
-  <si>
-    <t>k_cat_prot_deg</t>
-  </si>
-  <si>
-    <t>LN(2)/18/3600*6.7E-017*6.022E+023</t>
-  </si>
-  <si>
-    <t>k_cat_ala_ex</t>
-  </si>
-  <si>
-    <t>LN(2)/8/3600*(1500*380 + 0.001*6.7E-017*6.022E+023)*6.7E-017*6.022E+023/511*0.01</t>
-  </si>
-  <si>
-    <t>k_cat_h2o_ex</t>
-  </si>
-  <si>
-    <t>LN(2)/8/3600*(1500*379 + 55*6.7E-017*6.022E+023)*6.7E-017*6.022E+023/511*0.000001</t>
-  </si>
-  <si>
-    <t>k_cat_growth</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Number</t>
@@ -671,11 +692,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -722,21 +743,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -746,14 +752,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -769,14 +799,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -785,22 +815,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,6 +828,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -820,24 +843,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,11 +871,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -880,7 +901,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,13 +931,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,84 +968,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,7 +991,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,13 +1015,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,13 +1045,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,6 +1095,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1083,13 +1119,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,21 +1149,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1139,17 +1164,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,146 +1192,137 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1888,22 +1909,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>18</v>
@@ -1929,7 +1950,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E2" s="7">
         <v>0</v>
@@ -1937,7 +1958,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -1946,7 +1967,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -1954,16 +1975,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
@@ -1971,16 +1992,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
@@ -1988,16 +2009,16 @@
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E6" s="7" t="b">
         <f>FALSE()</f>
@@ -2048,19 +2069,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -2077,102 +2098,102 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="7:10">
@@ -2220,7 +2241,7 @@
   <sheetPr/>
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2241,19 +2262,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -2301,13 +2322,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -2359,16 +2380,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>18</v>
@@ -2396,22 +2417,22 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.3916666666667" style="1"/>
     <col min="2" max="3" width="8.575" style="1"/>
     <col min="4" max="5" width="12.625" style="1"/>
-    <col min="6" max="6" width="13.3916666666667" style="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
     <col min="7" max="1025" width="8.575" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
@@ -2424,16 +2445,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
@@ -2450,13 +2471,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
@@ -2467,105 +2488,147 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D4" s="1">
         <v>4117.36841781746</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D5" s="4">
         <v>431.58466902661</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D6" s="4">
         <v>11598.5774245708</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D7" s="4">
         <v>4218.10236992455</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D8" s="4">
         <v>971.065505309873</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="4">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H8">
+  <autoFilter ref="A1:H11">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2601,10 +2664,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -2655,28 +2718,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
@@ -2724,46 +2787,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -2948,23 +3011,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1031" width="8.575" style="1"/>
-    <col min="1032" max="16384" width="9" style="1"/>
+    <col min="1" max="1030" width="8.575" style="1"/>
+    <col min="1031" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:17">
+    <row r="1" customHeight="1" spans="1:16">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3002,45 +3065,42 @@
         <v>46</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I2" s="4">
         <v>4.58e-17</v>
@@ -3049,36 +3109,33 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="1" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -3087,13 +3144,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3138,19 +3192,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -3167,16 +3221,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E2" s="4">
         <v>27027.6249</v>
@@ -3185,21 +3239,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E3" s="4">
         <v>89.09322</v>
@@ -3208,24 +3262,24 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E4" s="4">
         <v>18.0153</v>
@@ -3234,18 +3288,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E5" s="4">
         <v>60220000</v>
@@ -3254,15 +3308,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="4">
         <v>9229006562.46504</v>
@@ -3271,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="7:7">
@@ -3327,13 +3381,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -3350,100 +3404,100 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3487,19 +3541,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -3516,121 +3570,121 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1">
         <v>1500</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="4">
         <v>0.001</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1">
         <v>55</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="4">
         <v>0.01</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1">
         <v>55</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1">
         <v>511</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="4">
         <v>100000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3670,10 +3724,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -3701,19 +3755,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
+    <col min="1" max="2" width="8.575" style="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.575" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3725,10 +3781,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -3743,8 +3799,30 @@
         <v>27</v>
       </c>
     </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
+  <autoFilter ref="A1:D3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="8"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$A$1:$E$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$I$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Rate laws'!$A$1:$G$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
@@ -83,11 +83,11 @@
     <definedName name="_FilterDatabase_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$I$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$I$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$I$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$I$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$I$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="10">'Rate laws'!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="10">'Rate laws'!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="10">'Rate laws'!$A$1:$G$1</definedName>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="188">
   <si>
     <t>Id</t>
   </si>
@@ -474,6 +474,9 @@
     <t>Reversible</t>
   </si>
   <si>
+    <t>Rate units</t>
+  </si>
+  <si>
     <t>Flux min</t>
   </si>
   <si>
@@ -486,6 +489,9 @@
     <t>[c]: (380) ala ==&gt; prot + (379) h2o</t>
   </si>
   <si>
+    <t>s^-1</t>
+  </si>
+  <si>
     <t>prot_degradation</t>
   </si>
   <si>
@@ -532,9 +538,6 @@
   </si>
   <si>
     <t>k_cat_trl * cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t>s^-1</t>
   </si>
   <si>
     <t>prot_degradation-forward</t>
@@ -692,11 +695,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -730,14 +733,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -750,6 +745,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -759,7 +761,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -774,19 +776,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -806,33 +821,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -844,14 +844,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,15 +857,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,9 +883,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -907,13 +910,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,12 +946,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -949,55 +958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,7 +970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,49 +982,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,7 +1024,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,6 +1095,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1114,22 +1132,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,16 +1153,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,145 +1191,145 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1880,14 +1883,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -1896,12 +1899,12 @@
     <col min="2" max="2" width="18.3166666666667" style="1"/>
     <col min="3" max="3" width="20.25" style="6"/>
     <col min="4" max="4" width="35.2416666666667" style="6"/>
-    <col min="5" max="5" width="9.10833333333333" style="1"/>
-    <col min="6" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="5" max="6" width="9.10833333333333" style="1"/>
+    <col min="7" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:12">
+    <row r="1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1927,19 +1930,22 @@
         <v>118</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1950,15 +1956,18 @@
         <v>30</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:5">
+      <c r="F2" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -1967,66 +1976,78 @@
         <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:5">
+      <c r="F3" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
+      <c r="F4" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:5">
+      <c r="F5" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E6" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
+      <c r="F6" s="7" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I6">
+  <autoFilter ref="A1:J6">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2069,10 +2090,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>64</v>
@@ -2098,102 +2119,102 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="7:10">
@@ -2271,10 +2292,10 @@
         <v>87</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -2328,7 +2349,7 @@
         <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -2380,13 +2401,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>87</v>
@@ -2448,10 +2469,10 @@
         <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>87</v>
@@ -2471,13 +2492,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
@@ -2488,101 +2509,101 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D4" s="1">
         <v>4117.36841781746</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D5" s="4">
         <v>431.58466902661</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D6" s="4">
         <v>11598.5774245708</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D7" s="4">
         <v>4218.10236992455</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D8" s="4">
         <v>971.065505309873</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
@@ -2590,13 +2611,13 @@
         <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D9" s="1">
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -2604,27 +2625,27 @@
         <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D10" s="1">
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D11" s="4">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2718,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>87</v>
@@ -2727,19 +2748,19 @@
         <v>64</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
@@ -2787,46 +2808,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -3757,7 +3778,7 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -5,44 +5,45 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Taxon" sheetId="2" r:id="rId2"/>
-    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
-    <sheet name="Species types" sheetId="5" r:id="rId5"/>
-    <sheet name="Species" sheetId="6" r:id="rId6"/>
-    <sheet name="Initial species concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="Observables" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="10" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId11"/>
-    <sheet name="dFBA objectives" sheetId="18" r:id="rId12"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId13"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="14" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="15" r:id="rId16"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId17"/>
-    <sheet name="References" sheetId="16" r:id="rId18"/>
+    <sheet name="Environment" sheetId="20" r:id="rId3"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId4"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId5"/>
+    <sheet name="Species types" sheetId="5" r:id="rId6"/>
+    <sheet name="Species" sheetId="6" r:id="rId7"/>
+    <sheet name="Initial species concentrations" sheetId="7" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
+    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="14" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
+    <sheet name="Evidence" sheetId="19" r:id="rId18"/>
+    <sheet name="References" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$F$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$A$1:$E$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$J$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Rate laws'!$A$1:$G$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$H$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$F$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Observables!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Functions!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$J$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$A$1:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
@@ -53,78 +54,78 @@
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="2">Submodels!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="2">Submodels!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="2">Submodels!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="2">Submodels!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="2">Submodels!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="6">'Initial species concentrations'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Initial species concentrations'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Initial species concentrations'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Initial species concentrations'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="6">'Initial species concentrations'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$J$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$J$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$J$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$J$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="10">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="10">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="10">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Parameters!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">Parameters!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Submodels!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Compartments!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$I$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$I$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$I$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="7">'Initial species concentrations'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="7">'Initial species concentrations'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="7">'Initial species concentrations'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="7">'Initial species concentrations'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="7">'Initial species concentrations'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Reactions!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">Reactions!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="11">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="11">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$H$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="192">
   <si>
     <t>Id</t>
   </si>
@@ -192,7 +193,7 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>mpn_m129</t>
+    <t>taxon</t>
   </si>
   <si>
     <t>Mycoplasma pneumoniae M129</t>
@@ -210,6 +211,21 @@
     <t>References</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -646,9 +662,6 @@
   </si>
   <si>
     <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -695,11 +708,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -746,15 +759,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,16 +788,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,13 +804,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,39 +817,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,6 +840,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -866,16 +871,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,6 +883,22 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -910,13 +923,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,31 +965,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,13 +1013,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,7 +1049,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,85 +1085,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,6 +1108,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1113,30 +1135,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1148,6 +1146,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,6 +1176,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1178,162 +1194,159 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1361,6 +1374,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1766,7 +1782,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="8.575" style="1"/>
-    <col min="2" max="2" width="18.425" style="10"/>
+    <col min="2" max="2" width="18.425" style="11"/>
     <col min="3" max="1025" width="8.575" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
@@ -1775,7 +1791,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1783,7 +1799,7 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1791,7 +1807,7 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1799,7 +1815,7 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1807,7 +1823,7 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1815,7 +1831,7 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1823,7 +1839,7 @@
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1846,7 +1862,7 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1883,9 +1899,88 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="8.575" style="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.575" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D3">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1912,31 +2007,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>19</v>
@@ -1947,103 +2042,103 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E2" s="7">
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E6" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K11"/>
@@ -2090,25 +2185,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -2119,102 +2214,102 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="7:10">
@@ -2257,7 +2352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K1"/>
@@ -2283,25 +2378,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -2316,7 +2411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I1"/>
@@ -2343,19 +2438,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>19</v>
@@ -2374,7 +2469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J1"/>
@@ -2401,22 +2496,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>19</v>
@@ -2435,7 +2530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J11"/>
@@ -2466,22 +2561,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>19</v>
@@ -2492,13 +2587,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
@@ -2509,143 +2604,143 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1">
         <v>4117.36841781746</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D5" s="4">
         <v>431.58466902661</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="D6" s="4">
         <v>11598.5774245708</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D7" s="4">
         <v>4218.10236992455</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D8" s="4">
         <v>971.065505309873</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D9" s="1">
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D10" s="1">
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D11" s="4">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2658,7 +2753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -2685,16 +2780,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>19</v>
@@ -2713,7 +2808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N1"/>
@@ -2739,34 +2834,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>19</v>
@@ -2781,7 +2876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R1"/>
@@ -2808,46 +2903,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -2874,7 +2969,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -2920,13 +3015,13 @@
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A6">
@@ -2939,6 +3034,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="1018" width="8.78333333333333" style="1"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="10"/>
+    <col min="1020" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G4"/>
@@ -2971,13 +3144,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
@@ -2988,35 +3161,35 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3029,7 +3202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P3"/>
@@ -3056,40 +3229,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>19</v>
@@ -3100,28 +3273,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I2" s="4">
         <v>4.58e-17</v>
@@ -3130,33 +3303,33 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -3165,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3181,7 +3354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K13"/>
@@ -3213,25 +3386,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -3242,16 +3415,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E2" s="4">
         <v>27027.6249</v>
@@ -3260,21 +3433,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E3" s="4">
         <v>89.09322</v>
@@ -3283,24 +3456,24 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E4" s="4">
         <v>18.0153</v>
@@ -3309,18 +3482,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E5" s="4">
         <v>60220000</v>
@@ -3329,15 +3502,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E6" s="4">
         <v>9229006562.46504</v>
@@ -3346,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="7:7">
@@ -3374,7 +3547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I8"/>
@@ -3402,19 +3575,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>19</v>
@@ -3425,100 +3598,100 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3531,7 +3704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K8"/>
@@ -3562,25 +3735,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -3591,121 +3764,121 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E2" s="1">
         <v>1500</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E3" s="4">
         <v>0.001</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1">
         <v>55</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E5" s="4">
         <v>0.01</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1">
         <v>55</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1">
         <v>511</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E8" s="4">
         <v>100000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3718,7 +3891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -3745,16 +3918,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -3771,83 +3944,4 @@
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="2" width="8.575" style="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D3">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="10" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="13" r:id="rId15"/>
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
@@ -39,8 +39,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Functions!$A$1:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$A$1:$G$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
@@ -94,16 +94,16 @@
     <definedName name="_FilterDatabase_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$H$1</definedName>
@@ -589,7 +589,7 @@
     <t>Cell size units</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -708,11 +708,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -751,30 +751,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,9 +792,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -803,60 +850,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,7 +866,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,19 +895,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -917,13 +917,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,13 +947,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,13 +1013,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,31 +1079,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,91 +1097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,6 +1108,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1136,30 +1145,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1170,15 +1155,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,141 +1184,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2474,12 +2474,12 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3038,7 +3038,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="D6" sqref="D6"/>

--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="193">
   <si>
     <t>Id</t>
   </si>
@@ -226,6 +226,12 @@
     <t>pH</t>
   </si>
   <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -608,9 +614,6 @@
   </si>
   <si>
     <t>fraction dry weight</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
   </si>
   <si>
     <t>k_cat_trl</t>
@@ -711,8 +714,8 @@
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -746,6 +749,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -759,8 +770,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -785,21 +863,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,82 +884,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -897,6 +892,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,7 +920,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,37 +1058,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,13 +1070,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,115 +1100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,11 +1123,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,28 +1179,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,165 +1211,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1925,16 +1928,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>19</v>
@@ -1945,24 +1948,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2007,31 +2010,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>19</v>
@@ -2042,103 +2045,103 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E2" s="7">
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E6" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2185,25 +2188,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -2214,102 +2217,102 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="7:10">
@@ -2378,25 +2381,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -2438,19 +2441,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>19</v>
@@ -2474,12 +2477,12 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2496,22 +2499,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>19</v>
@@ -2561,22 +2564,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>19</v>
@@ -2587,13 +2590,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
@@ -2604,143 +2607,143 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D4" s="1">
         <v>4117.36841781746</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D5" s="4">
         <v>431.58466902661</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D6" s="4">
         <v>11598.5774245708</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D7" s="4">
         <v>4218.10236992455</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D8" s="4">
         <v>971.065505309873</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D9" s="1">
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D10" s="1">
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D11" s="4">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2780,16 +2783,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>19</v>
@@ -2834,34 +2837,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>19</v>
@@ -2903,46 +2906,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -3036,15 +3039,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
@@ -3090,18 +3093,26 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3144,13 +3155,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
@@ -3161,35 +3172,35 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3229,40 +3240,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>19</v>
@@ -3273,28 +3284,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I2" s="4">
         <v>4.58e-17</v>
@@ -3303,33 +3314,33 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -3338,10 +3349,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3386,25 +3397,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -3415,16 +3426,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4">
         <v>27027.6249</v>
@@ -3433,21 +3444,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="4">
         <v>89.09322</v>
@@ -3456,24 +3467,24 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E4" s="4">
         <v>18.0153</v>
@@ -3482,18 +3493,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E5" s="4">
         <v>60220000</v>
@@ -3502,15 +3513,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E6" s="4">
         <v>9229006562.46504</v>
@@ -3519,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="7:7">
@@ -3575,19 +3586,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>19</v>
@@ -3598,100 +3609,100 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3735,25 +3746,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -3764,121 +3775,121 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1">
         <v>1500</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" s="4">
         <v>0.001</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1">
         <v>55</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="4">
         <v>0.01</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1">
         <v>55</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1">
         <v>511</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" s="4">
         <v>100000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3918,16 +3929,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>

--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,13 @@
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
-    <sheet name="References" sheetId="16" r:id="rId19"/>
+    <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
+    <sheet name="References" sheetId="16" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$F$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$G$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$A$1:$E$8</definedName>
@@ -43,7 +44,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
@@ -54,11 +55,11 @@
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Submodels!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Submodels!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$H$1</definedName>
@@ -114,18 +115,18 @@
     <definedName name="_FilterDatabase_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="199">
   <si>
     <t>Id</t>
   </si>
@@ -238,6 +239,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
     <t>mdl_translation</t>
   </si>
   <si>
@@ -664,10 +668,25 @@
     <t>Genetic variant</t>
   </si>
   <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <t>Title</t>
@@ -712,10 +731,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -749,36 +768,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,6 +797,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -814,68 +826,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -890,6 +840,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -897,9 +863,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -920,7 +939,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,13 +987,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,19 +1107,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,133 +1119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,11 +1133,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,32 +1177,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,164 +1205,166 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1360,13 +1379,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1902,25 +1921,25 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="2" width="8.575" style="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="4" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1928,10 +1947,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -1940,32 +1959,35 @@
         <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1981,28 +2003,28 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F6"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="16.0666666666667" style="1"/>
     <col min="2" max="2" width="18.3166666666667" style="1"/>
-    <col min="3" max="3" width="20.25" style="6"/>
-    <col min="4" max="4" width="35.2416666666667" style="6"/>
+    <col min="3" max="3" width="20.25" style="4"/>
+    <col min="4" max="4" width="35.2416666666667" style="4"/>
     <col min="5" max="6" width="9.10833333333333" style="1"/>
-    <col min="7" max="1026" width="8.575" style="1"/>
-    <col min="1027" max="16384" width="9" style="1"/>
+    <col min="7" max="1027" width="8.575" style="1"/>
+    <col min="1028" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2010,25 +2032,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>18</v>
@@ -2037,111 +2059,114 @@
         <v>36</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>127</v>
+      <c r="D2" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="E2" s="7">
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>130</v>
+      <c r="D3" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="6" t="s">
         <v>133</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="6" t="s">
         <v>136</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="6" t="s">
         <v>138</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="E6" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2157,14 +2182,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2176,11 +2201,11 @@
     <col min="5" max="5" width="10.0666666666667" style="1"/>
     <col min="6" max="6" width="25.625" style="1" customWidth="1"/>
     <col min="7" max="8" width="12.625" style="1"/>
-    <col min="9" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="9" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2188,19 +2213,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -2209,141 +2234,149 @@
         <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="7:10">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="7:11">
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
-    </row>
-    <row r="8" customHeight="1" spans="7:10">
+      <c r="K7"/>
+    </row>
+    <row r="8" customHeight="1" spans="7:11">
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-    </row>
-    <row r="9" customHeight="1" spans="7:10">
+      <c r="K8"/>
+    </row>
+    <row r="9" customHeight="1" spans="7:11">
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-    </row>
-    <row r="10" customHeight="1" spans="7:10">
+      <c r="K9"/>
+    </row>
+    <row r="10" customHeight="1" spans="7:11">
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
-    </row>
-    <row r="11" customHeight="1" spans="7:10">
+      <c r="K10"/>
+    </row>
+    <row r="11" customHeight="1" spans="7:11">
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
+      <c r="K11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6">
@@ -2358,14 +2391,14 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2373,7 +2406,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2381,19 +2414,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -2402,9 +2435,12 @@
         <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2417,23 +2453,23 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2441,13 +2477,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -2456,9 +2492,12 @@
         <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2475,51 +2514,54 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="D1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2536,14 +2578,14 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2552,11 +2594,11 @@
     <col min="2" max="3" width="8.575" style="1"/>
     <col min="4" max="5" width="12.625" style="1"/>
     <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="7" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2564,16 +2606,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
@@ -2582,21 +2624,24 @@
         <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
@@ -2607,13 +2652,13 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2622,128 +2667,128 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:9">
+    <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D4" s="1">
         <v>4117.36841781746</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="D5" s="5">
+        <v>431.58466902661</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="4">
-        <v>431.58466902661</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>11598.5774245708</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>4218.10236992455</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="4">
+        <v>165</v>
+      </c>
+      <c r="D8" s="5">
         <v>971.065505309873</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D9" s="1">
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D10" s="1">
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="4">
+        <v>144</v>
+      </c>
+      <c r="D11" s="5">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2759,23 +2804,23 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2783,10 +2828,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -2795,9 +2840,12 @@
         <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2814,14 +2862,14 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2829,7 +2877,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2837,16 +2885,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>178</v>
@@ -2855,21 +2903,45 @@
         <v>179</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2882,85 +2954,98 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S37" sqref="S37"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="1"/>
+    <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:18">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3036,12 +3121,97 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="S37" sqref="S37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1025" width="8.575" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:18">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
@@ -3125,29 +3295,29 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="15" customHeight="1" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="15" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3164,47 +3334,50 @@
         <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F4">
+  <autoFilter ref="A1:G4">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3216,23 +3389,23 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1030" width="8.575" style="1"/>
-    <col min="1031" max="16384" width="9" style="1"/>
+    <col min="1" max="1031" width="8.575" style="1"/>
+    <col min="1032" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3240,34 +3413,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>18</v>
@@ -3276,71 +3449,74 @@
         <v>36</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="4">
+        <v>62</v>
+      </c>
+      <c r="I2" s="5">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -3349,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3368,14 +3544,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3385,11 +3561,11 @@
     <col min="5" max="5" width="13.3916666666667" style="1"/>
     <col min="6" max="6" width="8.575" style="1"/>
     <col min="7" max="7" width="28.125" style="1" customWidth="1"/>
-    <col min="8" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="8" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3397,19 +3573,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -3418,135 +3594,138 @@
         <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="4">
+        <v>76</v>
+      </c>
+      <c r="E2" s="5">
         <v>27027.6249</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="4">
+        <v>81</v>
+      </c>
+      <c r="E3" s="5">
         <v>89.09322</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="4">
+        <v>87</v>
+      </c>
+      <c r="E4" s="5">
         <v>18.0153</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="4">
+        <v>90</v>
+      </c>
+      <c r="E5" s="5">
         <v>60220000</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="4">
+        <v>92</v>
+      </c>
+      <c r="E6" s="5">
         <v>9229006562.46504</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="7:7">
-      <c r="G9" s="6"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" customHeight="1" spans="7:7">
-      <c r="G10" s="6"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" customHeight="1" spans="7:7">
-      <c r="G11" s="6"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" customHeight="1" spans="7:7">
-      <c r="G12" s="6"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" customHeight="1" spans="7:7">
-      <c r="G13" s="6"/>
+      <c r="G13" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I6">
@@ -3561,24 +3740,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:E8"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="6" width="15.5333333333333" style="1"/>
-    <col min="7" max="1025" width="9.10833333333333" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="7" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3586,13 +3765,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -3601,108 +3780,111 @@
         <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3718,14 +3900,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
@@ -3734,11 +3916,11 @@
     <col min="2" max="2" width="10.0666666666667" style="1"/>
     <col min="3" max="3" width="8.575" style="1"/>
     <col min="4" max="5" width="9.25" style="1"/>
-    <col min="6" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="6" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3746,19 +3928,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -3767,129 +3949,132 @@
         <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1">
         <v>1500</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="4">
+        <v>62</v>
+      </c>
+      <c r="E3" s="5">
         <v>0.001</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1">
         <v>55</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="4">
+        <v>62</v>
+      </c>
+      <c r="E5" s="5">
         <v>0.01</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1">
         <v>55</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1">
         <v>511</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="4">
+        <v>62</v>
+      </c>
+      <c r="E8" s="5">
         <v>100000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3905,23 +4090,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3929,10 +4114,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -3940,10 +4125,13 @@
       <c r="F1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="6" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="198">
   <si>
     <t>Id</t>
   </si>
@@ -233,7 +233,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -248,7 +248,7 @@
     <t>translation</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>mdl_prot_degradation</t>
@@ -299,13 +299,13 @@
     <t>cytosol</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>e</t>
@@ -314,7 +314,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -326,7 +326,7 @@
     <t>extracellular space</t>
   </si>
   <si>
-    <t>extracellular</t>
+    <t>extracellular_compartment</t>
   </si>
   <si>
     <t>density_e</t>
@@ -558,9 +558,6 @@
   </si>
   <si>
     <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>k_cat_trl * cell_100_ag[c]</t>
@@ -731,10 +728,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -768,13 +765,67 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,88 +842,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,9 +861,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,16 +876,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -918,7 +915,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -945,7 +942,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,37 +1020,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,19 +1068,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,19 +1080,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,43 +1104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,31 +1116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,6 +1127,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1144,39 +1176,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,165 +1205,163 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1391,6 +1388,9 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1399,9 +1399,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1804,7 +1801,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="8.575" style="1"/>
-    <col min="2" max="2" width="18.425" style="11"/>
+    <col min="2" max="2" width="18.425" style="8"/>
     <col min="3" max="1025" width="8.575" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
@@ -1821,7 +1818,7 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1829,7 +1826,7 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1837,7 +1834,7 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1845,7 +1842,7 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1853,7 +1850,7 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1861,7 +1858,7 @@
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1884,7 +1881,7 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2189,7 +2186,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2253,11 +2250,9 @@
       <c r="D2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>129</v>
@@ -2265,7 +2260,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>130</v>
@@ -2273,11 +2268,9 @@
       <c r="D3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>129</v>
@@ -2285,7 +2278,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>132</v>
@@ -2293,11 +2286,9 @@
       <c r="D4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>129</v>
@@ -2305,7 +2296,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>135</v>
@@ -2313,11 +2304,9 @@
       <c r="D5" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>129</v>
@@ -2325,7 +2314,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>138</v>
@@ -2333,11 +2322,9 @@
       <c r="D6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>129</v>
@@ -2423,10 +2410,10 @@
         <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -2483,7 +2470,7 @@
         <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -2538,13 +2525,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>95</v>
@@ -2585,7 +2572,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2609,10 +2596,10 @@
         <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>95</v>
@@ -2635,14 +2622,12 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>28800</v>
       </c>
@@ -2652,14 +2637,12 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>1</v>
       </c>
@@ -2669,126 +2652,117 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="D4" s="1">
         <v>4117.36841781746</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" s="5">
         <v>431.58466902661</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="5">
         <v>11598.5774245708</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="5">
         <v>4218.10236992455</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D8" s="5">
         <v>971.065505309873</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="D9" s="1">
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="D10" s="1">
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D11" s="5">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +2780,7 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2885,10 +2859,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>95</v>
@@ -2897,10 +2871,10 @@
         <v>72</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>29</v>
@@ -2915,22 +2889,22 @@
         <v>33</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>18</v>
@@ -2980,10 +2954,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>95</v>
@@ -2992,7 +2966,7 @@
         <v>72</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -3103,13 +3077,13 @@
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="8"/>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A6">
@@ -3126,7 +3100,7 @@
   <sheetPr/>
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3148,46 +3122,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>18</v>
@@ -3222,8 +3196,8 @@
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="1018" width="8.78333333333333" style="1"/>
-    <col min="1019" max="1019" width="8.78333333333333" style="10"/>
-    <col min="1020" max="16384" width="9" style="10"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="11"/>
+    <col min="1020" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3302,7 +3276,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="15" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -3396,7 +3370,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3406,7 +3380,7 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3648,7 +3622,7 @@
       <c r="G3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3674,7 +3648,7 @@
       <c r="G4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3907,7 +3881,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
@@ -3965,7 +3939,7 @@
       <c r="C2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E2" s="1">
@@ -3982,7 +3956,7 @@
       <c r="C3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E3" s="5">
@@ -3999,7 +3973,7 @@
       <c r="C4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E4" s="1">
@@ -4016,7 +3990,7 @@
       <c r="C5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="5">
@@ -4033,7 +4007,7 @@
       <c r="C6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="1">
@@ -4050,7 +4024,7 @@
       <c r="C7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E7" s="1">
@@ -4067,7 +4041,7 @@
       <c r="C8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E8" s="5">

--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="6" activeTab="19"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -728,10 +728,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -765,6 +765,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -772,37 +777,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,7 +793,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,8 +808,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,28 +849,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -878,6 +862,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -885,14 +884,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,17 +914,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -942,115 +942,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,7 +972,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,13 +1074,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,25 +1098,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,9 +1132,65 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,65 +1212,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,138 +1230,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2250,7 +2250,6 @@
       <c r="D2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>144</v>
       </c>
@@ -2268,7 +2267,6 @@
       <c r="D3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>146</v>
       </c>
@@ -2286,7 +2284,6 @@
       <c r="D4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>148</v>
       </c>
@@ -2304,7 +2301,6 @@
       <c r="D5" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>150</v>
       </c>
@@ -2322,7 +2318,6 @@
       <c r="D6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>152</v>
       </c>
@@ -2627,7 +2622,6 @@
       <c r="B2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>28800</v>
       </c>
@@ -2642,7 +2636,6 @@
       <c r="B3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>1</v>
       </c>
@@ -3100,7 +3093,7 @@
   <sheetPr/>
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3185,10 +3178,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>

--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,11 @@
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
     <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
     <sheet name="References" sheetId="16" r:id="rId20"/>
+    <sheet name="Authors" sheetId="22" r:id="rId21"/>
+    <sheet name="Changes" sheetId="23" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$G$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$3</definedName>
@@ -45,11 +47,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
@@ -126,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="212">
   <si>
     <t>Id</t>
   </si>
@@ -167,528 +169,522 @@
     <t>wc_lang version</t>
   </si>
   <si>
+    <t>Time units</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Database references</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>taxon</t>
+  </si>
+  <si>
+    <t>Mycoplasma pneumoniae M129</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
+    <t>taxonomy: 272634</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>degC</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
+    <t>mdl_translation</t>
+  </si>
+  <si>
+    <t>translation</t>
+  </si>
+  <si>
+    <t>stochastic_simulation_algorithm</t>
+  </si>
+  <si>
+    <t>mdl_prot_degradation</t>
+  </si>
+  <si>
+    <t>protein degradation</t>
+  </si>
+  <si>
+    <t>mdl_metabolism</t>
+  </si>
+  <si>
+    <t>metabolism</t>
+  </si>
+  <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>cytosol</t>
+  </si>
+  <si>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal_distribution</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular_compartment</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>prot</t>
+  </si>
+  <si>
+    <t>protein (MPN001)</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>C1140H1902N380O381</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>ala</t>
+  </si>
+  <si>
+    <t>alanine</t>
+  </si>
+  <si>
+    <t>InChI=1S/C3H7NO2/c1-2(4)3(5)6/h2H,4H2,1H3,(H,5,6)/t2-/m0/s1</t>
+  </si>
+  <si>
+    <t>C3H7NO2</t>
+  </si>
+  <si>
+    <t>metabolite</t>
+  </si>
+  <si>
+    <t>chebi: CHEBI:16977</t>
+  </si>
+  <si>
+    <t>h2o</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>chebi: CHEBI:15377</t>
+  </si>
+  <si>
+    <t>cell_100_ag</t>
+  </si>
+  <si>
+    <t>100 attograms of a cell</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>prot[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>ala[c]</t>
+  </si>
+  <si>
+    <t>h2o[c]</t>
+  </si>
+  <si>
+    <t>ala[e]</t>
+  </si>
+  <si>
+    <t>h2o[e]</t>
+  </si>
+  <si>
+    <t>cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t>container[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-prot[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-ala[c]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-h2o[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-ala[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-h2o[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-container[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_e</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Rate units</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>[c]: (380) ala ==&gt; prot + (379) h2o</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>prot_degradation</t>
+  </si>
+  <si>
+    <t>[c]: prot + (379) h2o ==&gt; (380) ala</t>
+  </si>
+  <si>
+    <t>ala_ex</t>
+  </si>
+  <si>
+    <t>alanine import</t>
+  </si>
+  <si>
+    <t>(100) ala[e] ==&gt; (100) ala[c]</t>
+  </si>
+  <si>
+    <t>h2o_ex</t>
+  </si>
+  <si>
+    <t>water import</t>
+  </si>
+  <si>
+    <t>(1e6) h2o[e] ==&gt; (1e6) h2o[c]</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>==&gt; cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>translation-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>k_cat_trl * cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t>prot_degradation-forward</t>
+  </si>
+  <si>
+    <t>k_cat_prot_deg * prot[c]</t>
+  </si>
+  <si>
+    <t>ala_ex-forward</t>
+  </si>
+  <si>
+    <t>k_cat_ala_ex * cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t>h2o_ex-forward</t>
+  </si>
+  <si>
+    <t>k_cat_h2o_ex * cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t>growth-forward</t>
+  </si>
+  <si>
+    <t>k_cat_growth * cell_100_ag[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>dFBA objective reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>cell_cycle_len</t>
+  </si>
+  <si>
+    <t>cell cycle length</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>fraction dry weight</t>
+  </si>
+  <si>
+    <t>k_cat_trl</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>LN(2)/3600*(1/8 + 1/18) * 1500 / 511 * 6.7E-017 * 6.022E+023</t>
+  </si>
+  <si>
+    <t>k_cat_prot_deg</t>
+  </si>
+  <si>
+    <t>LN(2)/18/3600*6.7E-017*6.022E+023</t>
+  </si>
+  <si>
+    <t>k_cat_ala_ex</t>
+  </si>
+  <si>
+    <t>LN(2)/8/3600*(1500*380 + 0.001*6.7E-017*6.022E+023)*6.7E-017*6.022E+023/511*0.01</t>
+  </si>
+  <si>
+    <t>k_cat_h2o_ex</t>
+  </si>
+  <si>
+    <t>LN(2)/8/3600*(1500*379 + 55*6.7E-017*6.022E+023)*6.7E-017*6.022E+023/511*0.000001</t>
+  </si>
+  <si>
+    <t>k_cat_growth</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Author organization</t>
-  </si>
-  <si>
-    <t>Author email</t>
-  </si>
-  <si>
-    <t>Time units</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Database references</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>Updated</t>
-  </si>
-  <si>
-    <t>taxon</t>
-  </si>
-  <si>
-    <t>Mycoplasma pneumoniae M129</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>variety</t>
-  </si>
-  <si>
-    <t>taxonomy: 272634</t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>env</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Temperature units</t>
-  </si>
-  <si>
-    <t>degC</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>pH units</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>Evidence</t>
-  </si>
-  <si>
-    <t>Interpretations</t>
-  </si>
-  <si>
-    <t>mdl_translation</t>
-  </si>
-  <si>
-    <t>translation</t>
-  </si>
-  <si>
-    <t>stochastic_simulation_algorithm</t>
-  </si>
-  <si>
-    <t>mdl_prot_degradation</t>
-  </si>
-  <si>
-    <t>protein degradation</t>
-  </si>
-  <si>
-    <t>mdl_metabolism</t>
-  </si>
-  <si>
-    <t>metabolism</t>
-  </si>
-  <si>
-    <t>Biological type</t>
-  </si>
-  <si>
-    <t>Physical type</t>
-  </si>
-  <si>
-    <t>Geometry</t>
-  </si>
-  <si>
-    <t>Parent compartment</t>
-  </si>
-  <si>
-    <t>Mass units</t>
-  </si>
-  <si>
-    <t>Initial volume distribution</t>
-  </si>
-  <si>
-    <t>Initial volume mean</t>
-  </si>
-  <si>
-    <t>Initial volume standard deviation</t>
-  </si>
-  <si>
-    <t>Initial volume units</t>
-  </si>
-  <si>
-    <t>Initial density</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>cytosol</t>
-  </si>
-  <si>
-    <t>cellular_compartment</t>
-  </si>
-  <si>
-    <t>fluid_compartment</t>
-  </si>
-  <si>
-    <t>3D_compartment</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>normal_distribution</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>density_c</t>
-  </si>
-  <si>
-    <t>extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular_compartment</t>
-  </si>
-  <si>
-    <t>density_e</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>prot</t>
-  </si>
-  <si>
-    <t>protein (MPN001)</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-  </si>
-  <si>
-    <t>C1140H1902N380O381</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>ala</t>
-  </si>
-  <si>
-    <t>alanine</t>
-  </si>
-  <si>
-    <t>InChI=1S/C3H7NO2/c1-2(4)3(5)6/h2H,4H2,1H3,(H,5,6)/t2-/m0/s1</t>
-  </si>
-  <si>
-    <t>C3H7NO2</t>
-  </si>
-  <si>
-    <t>metabolite</t>
-  </si>
-  <si>
-    <t>chebi: CHEBI:16977</t>
-  </si>
-  <si>
-    <t>h2o</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O/h1H2</t>
-  </si>
-  <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>chebi: CHEBI:15377</t>
-  </si>
-  <si>
-    <t>cell_100_ag</t>
-  </si>
-  <si>
-    <t>100 attograms of a cell</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>container</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>prot[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>ala[c]</t>
-  </si>
-  <si>
-    <t>h2o[c]</t>
-  </si>
-  <si>
-    <t>ala[e]</t>
-  </si>
-  <si>
-    <t>h2o[e]</t>
-  </si>
-  <si>
-    <t>cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t>container[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-prot[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-ala[c]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-h2o[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-ala[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-h2o[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-container[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>volume_c</t>
-  </si>
-  <si>
-    <t>c / density_c</t>
-  </si>
-  <si>
-    <t>volume_e</t>
-  </si>
-  <si>
-    <t>e / density_e</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Rate units</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>[c]: (380) ala ==&gt; prot + (379) h2o</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>prot_degradation</t>
-  </si>
-  <si>
-    <t>[c]: prot + (379) h2o ==&gt; (380) ala</t>
-  </si>
-  <si>
-    <t>ala_ex</t>
-  </si>
-  <si>
-    <t>alanine import</t>
-  </si>
-  <si>
-    <t>(100) ala[e] ==&gt; (100) ala[c]</t>
-  </si>
-  <si>
-    <t>h2o_ex</t>
-  </si>
-  <si>
-    <t>water import</t>
-  </si>
-  <si>
-    <t>(1e6) h2o[e] ==&gt; (1e6) h2o[c]</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>==&gt; cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>translation-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>k_cat_trl * cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t>prot_degradation-forward</t>
-  </si>
-  <si>
-    <t>k_cat_prot_deg * prot[c]</t>
-  </si>
-  <si>
-    <t>ala_ex-forward</t>
-  </si>
-  <si>
-    <t>k_cat_ala_ex * cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t>h2o_ex-forward</t>
-  </si>
-  <si>
-    <t>k_cat_h2o_ex * cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t>growth-forward</t>
-  </si>
-  <si>
-    <t>k_cat_growth * cell_100_ag[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>dFBA objective reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>cell_cycle_len</t>
-  </si>
-  <si>
-    <t>cell cycle length</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>fraction dry weight</t>
-  </si>
-  <si>
-    <t>k_cat_trl</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>LN(2)/3600*(1/8 + 1/18) * 1500 / 511 * 6.7E-017 * 6.022E+023</t>
-  </si>
-  <si>
-    <t>k_cat_prot_deg</t>
-  </si>
-  <si>
-    <t>LN(2)/18/3600*6.7E-017*6.022E+023</t>
-  </si>
-  <si>
-    <t>k_cat_ala_ex</t>
-  </si>
-  <si>
-    <t>LN(2)/8/3600*(1500*380 + 0.001*6.7E-017*6.022E+023)*6.7E-017*6.022E+023/511*0.01</t>
-  </si>
-  <si>
-    <t>k_cat_h2o_ex</t>
-  </si>
-  <si>
-    <t>LN(2)/8/3600*(1500*379 + 55*6.7E-017*6.022E+023)*6.7E-017*6.022E+023/511*0.000001</t>
-  </si>
-  <si>
-    <t>k_cat_growth</t>
-  </si>
-  <si>
-    <t>g l^-1</t>
-  </si>
-  <si>
-    <t>Avogadro</t>
-  </si>
-  <si>
-    <t>molecule mol^-1</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Experiment type</t>
-  </si>
-  <si>
-    <t>Experiment design</t>
-  </si>
-  <si>
-    <t>Measurement method</t>
-  </si>
-  <si>
-    <t>Analysis method</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Editor</t>
   </si>
   <si>
@@ -720,6 +716,54 @@
   </si>
   <si>
     <t>Pages</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Middle name</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>ORCID</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Target type</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Reason type</t>
+  </si>
+  <si>
+    <t>Intention</t>
+  </si>
+  <si>
+    <t>Intention type</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -729,8 +773,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -770,20 +814,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -792,8 +822,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,17 +869,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,38 +892,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,13 +907,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,7 +921,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,9 +929,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -936,25 +980,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +1016,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,19 +1100,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,115 +1154,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,6 +1171,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1150,17 +1209,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,21 +1257,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1209,159 +1271,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1790,12 +1834,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
+      <selection pane="topRight" activeCell="A8" sqref="$A8:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -1862,26 +1906,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:1">
+    <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1890,23 +1934,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B15">
+  <autoFilter ref="A1:B12">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1944,47 +1973,47 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2029,141 +2058,141 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E2" s="7">
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E6" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2210,119 +2239,119 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="7:11">
@@ -2396,34 +2425,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2459,28 +2488,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2520,31 +2549,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2588,174 +2617,174 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D2" s="1">
         <v>28800</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D4" s="1">
         <v>4117.36841781746</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D5" s="5">
         <v>431.58466902661</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D6" s="5">
         <v>11598.5774245708</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D7" s="5">
         <v>4218.10236992455</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D8" s="5">
         <v>971.065505309873</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1">
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1">
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D11" s="5">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2795,25 +2824,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2852,64 +2881,64 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2947,31 +2976,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -3039,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -3047,34 +3076,34 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="8"/>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="8"/>
     </row>
@@ -3115,52 +3144,52 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3173,12 +3202,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
@@ -3198,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
@@ -3208,7 +3376,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>37</v>
@@ -3216,15 +3384,15 @@
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>7.75</v>
@@ -3232,25 +3400,25 @@
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3292,55 +3460,55 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3380,75 +3548,75 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="I2" s="5">
         <v>4.58e-17</v>
@@ -3457,33 +3625,33 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -3492,10 +3660,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3540,48 +3708,48 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E2" s="5">
         <v>27027.6249</v>
@@ -3590,21 +3758,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E3" s="5">
         <v>89.09322</v>
@@ -3613,24 +3781,24 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E4" s="5">
         <v>18.0153</v>
@@ -3639,18 +3807,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E5" s="5">
         <v>60220000</v>
@@ -3659,15 +3827,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E6" s="5">
         <v>9229006562.46504</v>
@@ -3676,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="7:7">
@@ -3732,126 +3900,126 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3895,153 +4063,153 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="1">
         <v>1500</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" s="5">
         <v>0.001</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1">
         <v>55</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E5" s="5">
         <v>0.01</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1">
         <v>55</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1">
         <v>511</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" s="5">
         <v>100000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4081,25 +4249,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="213">
   <si>
     <t>Id</t>
   </si>
@@ -679,6 +679,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -745,6 +748,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -758,9 +764,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Date</t>
@@ -773,9 +776,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -809,14 +812,22 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,8 +841,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,7 +874,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,6 +919,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,65 +948,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,22 +963,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -980,13 +983,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,25 +1025,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,31 +1049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,7 +1061,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,19 +1073,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,7 +1103,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,49 +1163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,50 +1174,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1237,7 +1196,66 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1256,156 +1274,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2950,14 +2953,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2968,7 +2971,7 @@
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3001,6 +3004,9 @@
       </c>
       <c r="K1" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -3144,46 +3150,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -3228,31 +3234,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -3270,14 +3276,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3285,7 +3291,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3296,43 +3302,46 @@
         <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>211</v>
+        <v>183</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -7,30 +7,30 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Model" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Taxon" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Environment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Submodels" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Compartments" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species types" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observables" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Functions" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Reactions" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Parameters" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observations" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!References" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Authors" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Changes" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Taxon" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Environment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Submodels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Init species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Parameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observations" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!References" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Authors" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName localSheetId="1" name="_FilterDatabase_0">Model!$A$1:$B$7</definedName>
@@ -108,22 +108,22 @@
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0">References!$A$1:$Q$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0">References!$A$1:$Q$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0">References!$A$1:$Q$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!Model'!$A$1:$B$12</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'!Taxon'!$A$1:$A$6</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!Submodels'!$A$1:$G$4</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!Compartments'!$A$2:$H$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!Species types'!$A$2:$K$8</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!Initial species concentrations'!$A$1:$E$8</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'!Observables'!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'!Functions'!$A$1:$D$3</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!Reactions'!$A$2:$J$7</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!Rate laws'!$A$1:$G$6</definedName>
-    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">'!dFBA objective reactions'!$A$1:$E$1</definedName>
-    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">'!dFBA objective species'!$A$1:$G$1</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!Parameters'!$A$1:$H$11</definedName>
-    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">'!Stop conditions'!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!References'!$A$1:$Q$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!!Model'!$A$1:$B$12</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'!!Taxon'!$A$1:$A$6</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!!Submodels'!$A$1:$G$4</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$H$4</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$K$8</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!!Init species concentrations'!$A$1:$E$8</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'!!Observables'!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'!!Functions'!$A$1:$D$3</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$J$7</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!!Rate laws'!$A$1:$G$6</definedName>
+    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">'!!dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">'!!dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$H$11</definedName>
+    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">'!!Stop conditions'!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -757,14 +757,14 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="41"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,7 +774,7 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="4" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1167,7 +1167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1184,42 +1184,38 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="19" t="inlineStr">
         <is>
           <t>!Table</t>
         </is>
       </c>
-      <c r="B2" s="19" t="inlineStr">
+      <c r="B3" s="19" t="inlineStr">
         <is>
           <t>!Description</t>
         </is>
       </c>
-      <c r="C2" s="19" t="inlineStr">
+      <c r="C3" s="19" t="inlineStr">
         <is>
           <t>!Number of objects</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="20" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B3" s="20" t="n"/>
-      <c r="C3" s="20" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="inlineStr">
         <is>
-          <t>Taxon</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B4" s="20" t="n"/>
@@ -1230,7 +1226,7 @@
     <row r="5">
       <c r="A5" s="20" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Taxon</t>
         </is>
       </c>
       <c r="B5" s="20" t="n"/>
@@ -1241,220 +1237,231 @@
     <row r="6">
       <c r="A6" s="20" t="inlineStr">
         <is>
-          <t>Submodels</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B6" s="20" t="n"/>
       <c r="C6" s="20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="inlineStr">
         <is>
-          <t>Compartments</t>
+          <t>Submodels</t>
         </is>
       </c>
       <c r="B7" s="20" t="n"/>
       <c r="C7" s="20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="inlineStr">
         <is>
-          <t>Species types</t>
+          <t>Compartments</t>
         </is>
       </c>
       <c r="B8" s="20" t="n"/>
       <c r="C8" s="20" t="n">
-        <v>143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="20" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Species types</t>
         </is>
       </c>
       <c r="B9" s="20" t="n"/>
       <c r="C9" s="20" t="n">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="20" t="inlineStr">
         <is>
-          <t>Initial species concentrations</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B10" s="20" t="n"/>
       <c r="C10" s="20" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="20" t="inlineStr">
         <is>
-          <t>Observables</t>
+          <t>Initial species concentrations</t>
         </is>
       </c>
       <c r="B11" s="20" t="n"/>
       <c r="C11" s="20" t="n">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="20" t="inlineStr">
         <is>
-          <t>Functions</t>
+          <t>Observables</t>
         </is>
       </c>
       <c r="B12" s="20" t="n"/>
       <c r="C12" s="20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="20" t="inlineStr">
         <is>
-          <t>Reactions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="B13" s="20" t="n"/>
       <c r="C13" s="20" t="n">
-        <v>175</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="20" t="inlineStr">
         <is>
-          <t>Rate laws</t>
+          <t>Reactions</t>
         </is>
       </c>
       <c r="B14" s="20" t="n"/>
       <c r="C14" s="20" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="20" t="inlineStr">
         <is>
-          <t>dFBA objectives</t>
+          <t>Rate laws</t>
         </is>
       </c>
       <c r="B15" s="20" t="n"/>
       <c r="C15" s="20" t="n">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="inlineStr">
         <is>
-          <t>dFBA objective reactions</t>
+          <t>dFBA objectives</t>
         </is>
       </c>
       <c r="B16" s="20" t="n"/>
       <c r="C16" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="inlineStr">
         <is>
-          <t>dFBA objective species</t>
+          <t>dFBA objective reactions</t>
         </is>
       </c>
       <c r="B17" s="20" t="n"/>
       <c r="C17" s="20" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="20" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>dFBA objective species</t>
         </is>
       </c>
       <c r="B18" s="20" t="n"/>
       <c r="C18" s="20" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="20" t="inlineStr">
         <is>
-          <t>Stop conditions</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="B19" s="20" t="n"/>
       <c r="C19" s="20" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="20" t="inlineStr">
         <is>
-          <t>Observations</t>
+          <t>Stop conditions</t>
         </is>
       </c>
       <c r="B20" s="20" t="n"/>
       <c r="C20" s="20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="20" t="inlineStr">
         <is>
-          <t>Observation sets</t>
+          <t>Observations</t>
         </is>
       </c>
       <c r="B21" s="20" t="n"/>
       <c r="C21" s="20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="20" t="inlineStr">
         <is>
-          <t>Conclusions</t>
+          <t>Observation sets</t>
         </is>
       </c>
       <c r="B22" s="20" t="n"/>
       <c r="C22" s="20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="20" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Conclusions</t>
         </is>
       </c>
       <c r="B23" s="20" t="n"/>
       <c r="C23" s="20" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="20" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="B24" s="20" t="n"/>
       <c r="C24" s="20" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="20" t="inlineStr">
         <is>
-          <t>Changes</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="B25" s="20" t="n"/>
       <c r="C25" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="20" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+      <c r="B26" s="20" t="n"/>
+      <c r="C26" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1513,7 +1520,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1605,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD8"/>
+  <dimension ref="A1:AMM8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="1" ySplit="2"/>
@@ -1720,7 +1727,7 @@
     <row customHeight="1" ht="13.5" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -4033,7 +4040,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4234,11 +4241,6 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
   </sheetData>
   <autoFilter ref="A1:G6"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
@@ -4252,7 +4254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -4270,7 +4272,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4368,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4456,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4553,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4851,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4913,7 +4915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFC3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -4931,7 +4933,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5110,7 +5112,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5273,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='ObservationSet' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5355,7 +5357,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Conclusion' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5514,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5639,7 +5641,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5734,7 +5736,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5854,7 +5856,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5955,7 +5957,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6059,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6167,7 +6169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD5"/>
+  <dimension ref="A1:AMR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -6186,7 +6188,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Compartment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8530,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='SpeciesType' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8824,7 +8826,6 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
     <row r="11">
       <c r="I11" s="4" t="n"/>
     </row>
@@ -8876,7 +8877,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9152,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>

--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -7,30 +7,30 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Model" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Taxon" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Environment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Submodels" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Compartments" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species types" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observables" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Functions" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Reactions" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Parameters" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observations" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!References" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Authors" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Changes" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Taxon" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Environment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Submodels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Parameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observations" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!References" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Authors" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName localSheetId="1" name="_FilterDatabase_0">Model!$A$1:$B$7</definedName>
@@ -108,22 +108,22 @@
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0">References!$A$1:$Q$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0">References!$A$1:$Q$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0">References!$A$1:$Q$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!Model'!$A$1:$B$12</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'!Taxon'!$A$1:$A$6</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!Submodels'!$A$1:$G$4</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!Compartments'!$A$2:$H$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!Species types'!$A$2:$K$8</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!Initial species concentrations'!$A$1:$E$8</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'!Observables'!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'!Functions'!$A$1:$D$3</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!Reactions'!$A$2:$J$7</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!Rate laws'!$A$1:$G$6</definedName>
-    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">'!dFBA objective reactions'!$A$1:$E$1</definedName>
-    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">'!dFBA objective species'!$A$1:$G$1</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!Parameters'!$A$1:$H$11</definedName>
-    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">'!Stop conditions'!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!References'!$A$1:$Q$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!!Model'!$A$1:$B$12</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'!!Taxon'!$A$1:$A$6</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!!Submodels'!$A$1:$G$4</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$H$4</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$K$8</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!!Initial species concentrations'!$A$1:$E$8</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'!!Observables'!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'!!Functions'!$A$1:$D$3</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$J$7</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!!Rate laws'!$A$1:$G$6</definedName>
+    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">'!!dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">'!!dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$H$11</definedName>
+    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">'!!Stop conditions'!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -757,14 +757,14 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="41"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,7 +774,7 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="4" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1167,7 +1167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1184,42 +1184,38 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="19" t="inlineStr">
         <is>
           <t>!Table</t>
         </is>
       </c>
-      <c r="B2" s="19" t="inlineStr">
+      <c r="B3" s="19" t="inlineStr">
         <is>
           <t>!Description</t>
         </is>
       </c>
-      <c r="C2" s="19" t="inlineStr">
+      <c r="C3" s="19" t="inlineStr">
         <is>
           <t>!Number of objects</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="20" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B3" s="20" t="n"/>
-      <c r="C3" s="20" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="inlineStr">
         <is>
-          <t>Taxon</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B4" s="20" t="n"/>
@@ -1230,7 +1226,7 @@
     <row r="5">
       <c r="A5" s="20" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Taxon</t>
         </is>
       </c>
       <c r="B5" s="20" t="n"/>
@@ -1241,220 +1237,231 @@
     <row r="6">
       <c r="A6" s="20" t="inlineStr">
         <is>
-          <t>Submodels</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B6" s="20" t="n"/>
       <c r="C6" s="20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="inlineStr">
         <is>
-          <t>Compartments</t>
+          <t>Submodels</t>
         </is>
       </c>
       <c r="B7" s="20" t="n"/>
       <c r="C7" s="20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="inlineStr">
         <is>
-          <t>Species types</t>
+          <t>Compartments</t>
         </is>
       </c>
       <c r="B8" s="20" t="n"/>
       <c r="C8" s="20" t="n">
-        <v>143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="20" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Species types</t>
         </is>
       </c>
       <c r="B9" s="20" t="n"/>
       <c r="C9" s="20" t="n">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="20" t="inlineStr">
         <is>
-          <t>Initial species concentrations</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B10" s="20" t="n"/>
       <c r="C10" s="20" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="20" t="inlineStr">
         <is>
-          <t>Observables</t>
+          <t>Initial species concentrations</t>
         </is>
       </c>
       <c r="B11" s="20" t="n"/>
       <c r="C11" s="20" t="n">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="20" t="inlineStr">
         <is>
-          <t>Functions</t>
+          <t>Observables</t>
         </is>
       </c>
       <c r="B12" s="20" t="n"/>
       <c r="C12" s="20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="20" t="inlineStr">
         <is>
-          <t>Reactions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="B13" s="20" t="n"/>
       <c r="C13" s="20" t="n">
-        <v>175</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="20" t="inlineStr">
         <is>
-          <t>Rate laws</t>
+          <t>Reactions</t>
         </is>
       </c>
       <c r="B14" s="20" t="n"/>
       <c r="C14" s="20" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="20" t="inlineStr">
         <is>
-          <t>dFBA objectives</t>
+          <t>Rate laws</t>
         </is>
       </c>
       <c r="B15" s="20" t="n"/>
       <c r="C15" s="20" t="n">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="inlineStr">
         <is>
-          <t>dFBA objective reactions</t>
+          <t>dFBA objectives</t>
         </is>
       </c>
       <c r="B16" s="20" t="n"/>
       <c r="C16" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="inlineStr">
         <is>
-          <t>dFBA objective species</t>
+          <t>dFBA objective reactions</t>
         </is>
       </c>
       <c r="B17" s="20" t="n"/>
       <c r="C17" s="20" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="20" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>dFBA objective species</t>
         </is>
       </c>
       <c r="B18" s="20" t="n"/>
       <c r="C18" s="20" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="20" t="inlineStr">
         <is>
-          <t>Stop conditions</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="B19" s="20" t="n"/>
       <c r="C19" s="20" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="20" t="inlineStr">
         <is>
-          <t>Observations</t>
+          <t>Stop conditions</t>
         </is>
       </c>
       <c r="B20" s="20" t="n"/>
       <c r="C20" s="20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="20" t="inlineStr">
         <is>
-          <t>Observation sets</t>
+          <t>Observations</t>
         </is>
       </c>
       <c r="B21" s="20" t="n"/>
       <c r="C21" s="20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="20" t="inlineStr">
         <is>
-          <t>Conclusions</t>
+          <t>Observation sets</t>
         </is>
       </c>
       <c r="B22" s="20" t="n"/>
       <c r="C22" s="20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="20" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Conclusions</t>
         </is>
       </c>
       <c r="B23" s="20" t="n"/>
       <c r="C23" s="20" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="20" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="B24" s="20" t="n"/>
       <c r="C24" s="20" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="20" t="inlineStr">
         <is>
-          <t>Changes</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="B25" s="20" t="n"/>
       <c r="C25" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="20" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+      <c r="B26" s="20" t="n"/>
+      <c r="C26" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1513,7 +1520,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1605,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD8"/>
+  <dimension ref="A1:AMM8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="1" ySplit="2"/>
@@ -1720,7 +1727,7 @@
     <row customHeight="1" ht="13.5" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -4033,7 +4040,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4234,11 +4241,6 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
   </sheetData>
   <autoFilter ref="A1:G6"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
@@ -4252,7 +4254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -4270,7 +4272,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4368,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4456,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4553,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4851,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4913,7 +4915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFC3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -4931,7 +4933,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5110,7 +5112,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5273,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='ObservationSet' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5355,7 +5357,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Conclusion' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5514,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5639,7 +5641,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5734,7 +5736,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5854,7 +5856,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5955,7 +5957,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6059,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6167,7 +6169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD5"/>
+  <dimension ref="A1:AMR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -6186,7 +6188,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Compartment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8530,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='SpeciesType' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8824,7 +8826,6 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
     <row r="11">
       <c r="I11" s="4" t="n"/>
     </row>
@@ -8876,7 +8877,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9152,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>

--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="13960" tabRatio="993" activeTab="8"/>
+    <workbookView xWindow="-29760" yWindow="3260" windowWidth="28700" windowHeight="13960" tabRatio="993" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -1963,11 +1963,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection sqref="A1:XFD1"/>
+      <selection pane="topRight" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2046,11 +2047,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:XFD1"/>
+      <selection pane="topRight" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4273,11 +4275,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E2:E6"/>
+      <selection sqref="A1:XFD1"/>
+      <selection pane="topRight" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4433,7 +4436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -5690,18 +5693,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C2"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="6" customWidth="1"/>
     <col min="5" max="6" width="8.6640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" style="6" customWidth="1"/>
@@ -8462,18 +8465,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27" style="6" customWidth="1"/>
     <col min="2" max="2" width="10" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1640625" style="20" customWidth="1"/>
     <col min="6" max="1026" width="8.5" style="6" customWidth="1"/>

--- a/examples/translation_metabolism_hybrid_model/model.xlsx
+++ b/examples/translation_metabolism_hybrid_model/model.xlsx
@@ -1144,7 +1144,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4083,7 +4083,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4478,7 +4478,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4739,7 +4739,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5140,7 +5140,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5267,7 +5267,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5482,7 +5482,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5580,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -5682,7 +5682,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8153,7 +8153,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8500,7 +8500,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8776,7 +8776,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
